--- a/Figures/1 GRADIENT/PCA_fsca_contributions.xlsx
+++ b/Figures/1 GRADIENT/PCA_fsca_contributions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugirona-my.sharepoint.com/personal/u4001033_udg_edu/Documents/GRADCATCH/ANALISIS/R/SP_gradient/Figures/1 GRADIENT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A9C73F-076B-4DE2-A1E4-C3F36122731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{68A9C73F-076B-4DE2-A1E4-C3F36122731A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1C5556F-0540-433B-BA56-A38B730D7241}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView minimized="1" xWindow="4512" yWindow="528" windowWidth="18360" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCA_fsca_contributions" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -554,8 +554,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Èmfasi1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -910,11 +911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -931,10 +932,10 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>8.8007320167182002</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>9.8194203942395006</v>
       </c>
     </row>
@@ -942,10 +943,10 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>9.5915836712991602</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>5.9450186720465199</v>
       </c>
     </row>
@@ -953,10 +954,10 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>14.0333962556867</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1.28735723887871</v>
       </c>
     </row>
@@ -964,10 +965,10 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2.75806854402957</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>24.837498579362801</v>
       </c>
     </row>
@@ -975,10 +976,10 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>13.6336868154676</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1.61290979186824</v>
       </c>
     </row>
@@ -986,10 +987,10 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>8.5995049127959895</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>11.510683147255399</v>
       </c>
     </row>
@@ -997,10 +998,10 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>13.684464317636101</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1.5826684406599401</v>
       </c>
     </row>
@@ -1008,10 +1009,10 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>3.75332430614325</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>12.5183600440495</v>
       </c>
     </row>
@@ -1019,10 +1020,10 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>5.9228127317388104</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>11.8308189595045</v>
       </c>
     </row>
@@ -1030,10 +1031,10 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>3.5124381993351501</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1.18874338651432</v>
       </c>
     </row>
@@ -1041,10 +1042,10 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.74418919246836501</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1.30365246721985</v>
       </c>
     </row>
@@ -1052,10 +1053,10 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>2.6520957297433401</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0.27372981313010902</v>
       </c>
     </row>
@@ -1063,10 +1064,10 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1.8498725337597902E-2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>6.1964992714981397</v>
       </c>
     </row>
@@ -1074,10 +1075,10 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>9.3008119222530503</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>5.6548625374624502</v>
       </c>
     </row>
@@ -1085,10 +1086,10 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>2.99439265934706</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>4.4377772563100599</v>
       </c>
     </row>
